--- a/Al_data/7000_Al.xlsx
+++ b/Al_data/7000_Al.xlsx
@@ -2,22 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\final_project\Al_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2D7E7C-F292-4F74-B911-6E44F51C4506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D099211C-1A13-4340-B975-EE951182F060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{792125D8-4BE3-42A9-A8B9-87CD6DF89386}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{792125D8-4BE3-42A9-A8B9-87CD6DF89386}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$Y$2:$Y$20</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="276">
   <si>
     <t>Cr</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5622,13 +5626,220 @@
   <si>
     <t>7229-T651</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7001</t>
+  </si>
+  <si>
+    <t>7003</t>
+  </si>
+  <si>
+    <t>7004</t>
+  </si>
+  <si>
+    <t>7005</t>
+  </si>
+  <si>
+    <t>7009</t>
+  </si>
+  <si>
+    <t>7010</t>
+  </si>
+  <si>
+    <t>7012</t>
+  </si>
+  <si>
+    <t>7014</t>
+  </si>
+  <si>
+    <t>7015</t>
+  </si>
+  <si>
+    <t>7016</t>
+  </si>
+  <si>
+    <t>7017</t>
+  </si>
+  <si>
+    <t>7018</t>
+  </si>
+  <si>
+    <t>7019</t>
+  </si>
+  <si>
+    <t>7020</t>
+  </si>
+  <si>
+    <t>7021</t>
+  </si>
+  <si>
+    <t>7022</t>
+  </si>
+  <si>
+    <t>7023</t>
+  </si>
+  <si>
+    <t>7024</t>
+  </si>
+  <si>
+    <t>7026</t>
+  </si>
+  <si>
+    <t>7028</t>
+  </si>
+  <si>
+    <t>7029</t>
+  </si>
+  <si>
+    <t>7030</t>
+  </si>
+  <si>
+    <t>7031</t>
+  </si>
+  <si>
+    <t>7032</t>
+  </si>
+  <si>
+    <t>7033</t>
+  </si>
+  <si>
+    <t>7034</t>
+  </si>
+  <si>
+    <t>7035</t>
+  </si>
+  <si>
+    <t>7036</t>
+  </si>
+  <si>
+    <t>7037</t>
+  </si>
+  <si>
+    <t>7039</t>
+  </si>
+  <si>
+    <t>7040</t>
+  </si>
+  <si>
+    <t>7041</t>
+  </si>
+  <si>
+    <t>7042</t>
+  </si>
+  <si>
+    <t>7046</t>
+  </si>
+  <si>
+    <t>7047</t>
+  </si>
+  <si>
+    <t>7049</t>
+  </si>
+  <si>
+    <t>7050</t>
+  </si>
+  <si>
+    <t>7056</t>
+  </si>
+  <si>
+    <t>7060</t>
+  </si>
+  <si>
+    <t>7064</t>
+  </si>
+  <si>
+    <t>7065</t>
+  </si>
+  <si>
+    <t>7068</t>
+  </si>
+  <si>
+    <t>7075</t>
+  </si>
+  <si>
+    <t>7076</t>
+  </si>
+  <si>
+    <t>7081</t>
+  </si>
+  <si>
+    <t>7085</t>
+  </si>
+  <si>
+    <t>7093</t>
+  </si>
+  <si>
+    <t>7095</t>
+  </si>
+  <si>
+    <t>7099</t>
+  </si>
+  <si>
+    <t>7108</t>
+  </si>
+  <si>
+    <t>7116</t>
+  </si>
+  <si>
+    <t>7129</t>
+  </si>
+  <si>
+    <t>7136</t>
+  </si>
+  <si>
+    <t>7140</t>
+  </si>
+  <si>
+    <t>7149</t>
+  </si>
+  <si>
+    <t>7150</t>
+  </si>
+  <si>
+    <t>7155</t>
+  </si>
+  <si>
+    <t>7168</t>
+  </si>
+  <si>
+    <t>7175</t>
+  </si>
+  <si>
+    <t>7178</t>
+  </si>
+  <si>
+    <t>7181</t>
+  </si>
+  <si>
+    <t>7185</t>
+  </si>
+  <si>
+    <t>7204</t>
+  </si>
+  <si>
+    <t>7229</t>
+  </si>
+  <si>
+    <t>7249</t>
+  </si>
+  <si>
+    <t>7255</t>
+  </si>
+  <si>
+    <t>7349</t>
+  </si>
+  <si>
+    <t>7449</t>
+  </si>
+  <si>
+    <t>7475</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5683,6 +5894,13 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -5727,7 +5945,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5771,6 +5989,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6087,11 +6308,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC36013F-06C2-4CA2-B9A0-38BB4D127919}">
-  <dimension ref="A1:W163"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:Y163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z28" sqref="Z28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34:M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6099,6 +6321,7 @@
     <col min="1" max="1" width="11.59765625" customWidth="1"/>
     <col min="2" max="2" width="11.19921875" customWidth="1"/>
     <col min="19" max="19" width="25.59765625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.8984375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.4">
@@ -8244,7 +8467,7 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="H29">
         <v>7.4999999999999997E-2</v>
@@ -8608,48 +8831,37 @@
       <c r="A34" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="14" cm="1">
-        <f t="array" ref="B34">IFERROR(INDEX($A$158:$F$160, MATCH(TRUE, ISNUMBER(FIND(B$1, $A$158:$A$160)), 0), 6), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="C34" s="14" cm="1">
-        <f t="array" ref="C34">IFERROR(INDEX($A$158:$F$160, MATCH(TRUE, ISNUMBER(FIND(C$1, $A$158:$A$160)), 0), 6), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="14" cm="1">
-        <f t="array" ref="D34">IFERROR(INDEX($A$158:$F$160, MATCH(TRUE, ISNUMBER(FIND(D$1, $A$158:$A$160)), 0), 6), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="14" cm="1">
-        <f t="array" ref="E34">IFERROR(INDEX($A$158:$F$160, MATCH(TRUE, ISNUMBER(FIND(E$1, $A$158:$A$160)), 0), 6), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="14" cm="1">
-        <f t="array" ref="F34">IFERROR(INDEX($A$158:$F$160, MATCH(TRUE, ISNUMBER(FIND(F$1, $A$158:$A$160)), 0), 6), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="14" cm="1">
-        <f t="array" ref="G34">IFERROR(INDEX($A$158:$F$160, MATCH(TRUE, ISNUMBER(FIND(G$1, $A$158:$A$160)), 0), 6), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="14" cm="1">
-        <f t="array" ref="H34">IFERROR(INDEX($A$158:$F$160, MATCH(TRUE, ISNUMBER(FIND(H$1, $A$158:$A$160)), 0), 6), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="14" cm="1">
-        <f t="array" ref="I34">IFERROR(INDEX($A$158:$F$160, MATCH(TRUE, ISNUMBER(FIND(I$1, $A$158:$A$160)), 0), 6), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="14" cm="1">
-        <f t="array" ref="J34">IFERROR(INDEX($A$158:$F$160, MATCH(TRUE, ISNUMBER(FIND(J$1, $A$158:$A$160)), 0), 6), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="14" cm="1">
-        <f t="array" ref="K34">IFERROR(INDEX($A$158:$F$160, MATCH(TRUE, ISNUMBER(FIND(K$1, $A$158:$A$160)), 0), 6), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="14" cm="1">
-        <f t="array" ref="L34">IFERROR(INDEX($A$158:$F$160, MATCH(TRUE, ISNUMBER(FIND(L$1, $A$158:$A$160)), 0), 6), 0)</f>
+      <c r="B34" s="14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C34" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="D34" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="E34" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="F34" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="G34" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="H34" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="I34" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="J34" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="K34" s="14">
+        <v>0</v>
+      </c>
+      <c r="L34" s="14">
         <v>0</v>
       </c>
       <c r="M34">
@@ -8744,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <f t="shared" ref="Q35:Q139" si="8">IF(ISNUMBER(SEARCH($Q$1, $A35)), 1, 0)</f>
+        <f t="shared" ref="Q35:Q138" si="8">IF(ISNUMBER(SEARCH($Q$1, $A35)), 1, 0)</f>
         <v>1</v>
       </c>
       <c r="R35">
@@ -14434,23 +14646,23 @@
         <v>0</v>
       </c>
       <c r="N110">
-        <f>IF(ISNUMBER(SEARCH($N$1, $A110)), 1, 0)</f>
+        <f t="shared" ref="N110:N115" si="10">IF(ISNUMBER(SEARCH($N$1, $A110)), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="O110">
-        <f>IF(ISNUMBER(SEARCH($O$1, $A110)), 1, 0)</f>
+        <f t="shared" ref="O110:O115" si="11">IF(ISNUMBER(SEARCH($O$1, $A110)), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="P110">
-        <f>IF(ISNUMBER(SEARCH($P$1, $A110)), 1, 0)</f>
+        <f t="shared" ref="P110:P115" si="12">IF(ISNUMBER(SEARCH($P$1, $A110)), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q110">
-        <f>IF(ISNUMBER(SEARCH($Q$1, $A110)), 1, 0)</f>
+        <f t="shared" ref="Q110:Q115" si="13">IF(ISNUMBER(SEARCH($Q$1, $A110)), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="R110">
-        <f>IF(ISNUMBER(SEARCH($R$1, $A110)), 1, 0)</f>
+        <f t="shared" ref="R110:R115" si="14">IF(ISNUMBER(SEARCH($R$1, $A110)), 1, 0)</f>
         <v>1</v>
       </c>
       <c r="S110">
@@ -14510,23 +14722,23 @@
         <v>0</v>
       </c>
       <c r="N111">
-        <f>IF(ISNUMBER(SEARCH($N$1, $A111)), 1, 0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O111">
-        <f>IF(ISNUMBER(SEARCH($O$1, $A111)), 1, 0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P111">
-        <f>IF(ISNUMBER(SEARCH($P$1, $A111)), 1, 0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q111">
-        <f>IF(ISNUMBER(SEARCH($Q$1, $A111)), 1, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R111">
-        <f>IF(ISNUMBER(SEARCH($R$1, $A111)), 1, 0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S111">
@@ -14586,23 +14798,23 @@
         <v>0</v>
       </c>
       <c r="N112">
-        <f>IF(ISNUMBER(SEARCH($N$1, $A112)), 1, 0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O112">
-        <f>IF(ISNUMBER(SEARCH($O$1, $A112)), 1, 0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P112">
-        <f>IF(ISNUMBER(SEARCH($P$1, $A112)), 1, 0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q112">
-        <f>IF(ISNUMBER(SEARCH($Q$1, $A112)), 1, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R112">
-        <f>IF(ISNUMBER(SEARCH($R$1, $A112)), 1, 0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S112">
@@ -14662,23 +14874,23 @@
         <v>0</v>
       </c>
       <c r="N113">
-        <f>IF(ISNUMBER(SEARCH($N$1, $A113)), 1, 0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O113">
-        <f>IF(ISNUMBER(SEARCH($O$1, $A113)), 1, 0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P113">
-        <f>IF(ISNUMBER(SEARCH($P$1, $A113)), 1, 0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q113">
-        <f>IF(ISNUMBER(SEARCH($Q$1, $A113)), 1, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R113">
-        <f>IF(ISNUMBER(SEARCH($R$1, $A113)), 1, 0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S113">
@@ -14738,23 +14950,23 @@
         <v>0</v>
       </c>
       <c r="N114">
-        <f>IF(ISNUMBER(SEARCH($N$1, $A114)), 1, 0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O114">
-        <f>IF(ISNUMBER(SEARCH($O$1, $A114)), 1, 0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P114">
-        <f>IF(ISNUMBER(SEARCH($P$1, $A114)), 1, 0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q114">
-        <f>IF(ISNUMBER(SEARCH($Q$1, $A114)), 1, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R114">
-        <f>IF(ISNUMBER(SEARCH($R$1, $A114)), 1, 0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S114">
@@ -14814,23 +15026,23 @@
         <v>0</v>
       </c>
       <c r="N115">
-        <f>IF(ISNUMBER(SEARCH($N$1, $A115)), 1, 0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O115">
-        <f>IF(ISNUMBER(SEARCH($O$1, $A115)), 1, 0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P115">
-        <f>IF(ISNUMBER(SEARCH($P$1, $A115)), 1, 0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q115">
-        <f>IF(ISNUMBER(SEARCH($Q$1, $A115)), 1, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R115">
-        <f>IF(ISNUMBER(SEARCH($R$1, $A115)), 1, 0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S115">
@@ -16650,7 +16862,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <f t="shared" si="8"/>
+        <f>IF(ISNUMBER(SEARCH($Q$1, $A139)), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="R139">
@@ -16673,44 +16885,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="J140" t="s">
-        <v>65</v>
-      </c>
-    </row>
     <row r="158" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F158" t="str">
-        <f>IF(ISNUMBER(SEARCH("-", B158)), (VALUE(LEFT(B158, SEARCH("-", B158) - 1)) + VALUE(MID(B158, SEARCH("-", B158) + 2, LEN(B158) - SEARCH("-", B158) - 2))) / 2, IF(AND(ISNUMBER(SEARCH("&lt;=", B158)), ISNUMBER(VALUE(MID(B158, SEARCH("&lt;=", B158) + 3, LEN(B158) - SEARCH("&lt;=", B158) - 3)))), VALUE(MID(B158, SEARCH("&lt;=", B158) + 3, LEN(B158) - SEARCH("&lt;=", B158) - 3)) / 2, ""))</f>
+        <f t="shared" ref="F158:F163" si="15">IF(ISNUMBER(SEARCH("-", B158)), (VALUE(LEFT(B158, SEARCH("-", B158) - 1)) + VALUE(MID(B158, SEARCH("-", B158) + 2, LEN(B158) - SEARCH("-", B158) - 2))) / 2, IF(AND(ISNUMBER(SEARCH("&lt;=", B158)), ISNUMBER(VALUE(MID(B158, SEARCH("&lt;=", B158) + 3, LEN(B158) - SEARCH("&lt;=", B158) - 3)))), VALUE(MID(B158, SEARCH("&lt;=", B158) + 3, LEN(B158) - SEARCH("&lt;=", B158) - 3)) / 2, ""))</f>
         <v/>
       </c>
     </row>
     <row r="159" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F159" t="str">
-        <f>IF(ISNUMBER(SEARCH("-", B159)), (VALUE(LEFT(B159, SEARCH("-", B159) - 1)) + VALUE(MID(B159, SEARCH("-", B159) + 2, LEN(B159) - SEARCH("-", B159) - 2))) / 2, IF(AND(ISNUMBER(SEARCH("&lt;=", B159)), ISNUMBER(VALUE(MID(B159, SEARCH("&lt;=", B159) + 3, LEN(B159) - SEARCH("&lt;=", B159) - 3)))), VALUE(MID(B159, SEARCH("&lt;=", B159) + 3, LEN(B159) - SEARCH("&lt;=", B159) - 3)) / 2, ""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F160" t="str">
-        <f>IF(ISNUMBER(SEARCH("-", B160)), (VALUE(LEFT(B160, SEARCH("-", B160) - 1)) + VALUE(MID(B160, SEARCH("-", B160) + 2, LEN(B160) - SEARCH("-", B160) - 2))) / 2, IF(AND(ISNUMBER(SEARCH("&lt;=", B160)), ISNUMBER(VALUE(MID(B160, SEARCH("&lt;=", B160) + 3, LEN(B160) - SEARCH("&lt;=", B160) - 3)))), VALUE(MID(B160, SEARCH("&lt;=", B160) + 3, LEN(B160) - SEARCH("&lt;=", B160) - 3)) / 2, ""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F161" t="str">
-        <f>IF(ISNUMBER(SEARCH("-", B161)), (VALUE(LEFT(B161, SEARCH("-", B161) - 1)) + VALUE(MID(B161, SEARCH("-", B161) + 2, LEN(B161) - SEARCH("-", B161) - 2))) / 2, IF(AND(ISNUMBER(SEARCH("&lt;=", B161)), ISNUMBER(VALUE(MID(B161, SEARCH("&lt;=", B161) + 3, LEN(B161) - SEARCH("&lt;=", B161) - 3)))), VALUE(MID(B161, SEARCH("&lt;=", B161) + 3, LEN(B161) - SEARCH("&lt;=", B161) - 3)) / 2, ""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F162" t="str">
-        <f>IF(ISNUMBER(SEARCH("-", B162)), (VALUE(LEFT(B162, SEARCH("-", B162) - 1)) + VALUE(MID(B162, SEARCH("-", B162) + 2, LEN(B162) - SEARCH("-", B162) - 2))) / 2, IF(AND(ISNUMBER(SEARCH("&lt;=", B162)), ISNUMBER(VALUE(MID(B162, SEARCH("&lt;=", B162) + 3, LEN(B162) - SEARCH("&lt;=", B162) - 3)))), VALUE(MID(B162, SEARCH("&lt;=", B162) + 3, LEN(B162) - SEARCH("&lt;=", B162) - 3)) / 2, ""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F163" t="str">
-        <f>IF(ISNUMBER(SEARCH("-", B163)), (VALUE(LEFT(B163, SEARCH("-", B163) - 1)) + VALUE(MID(B163, SEARCH("-", B163) + 2, LEN(B163) - SEARCH("-", B163) - 2))) / 2, IF(AND(ISNUMBER(SEARCH("&lt;=", B163)), ISNUMBER(VALUE(MID(B163, SEARCH("&lt;=", B163) + 3, LEN(B163) - SEARCH("&lt;=", B163) - 3)))), VALUE(MID(B163, SEARCH("&lt;=", B163) + 3, LEN(B163) - SEARCH("&lt;=", B163) - 3)) / 2, ""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -16722,6 +16929,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA0A23E-CC3F-449E-A361-A4B44479B44B}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16893,7 +17101,7 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="F18" t="str">
-        <f>IF(ISNUMBER(SEARCH("-", B18)), (VALUE(LEFT(B18, SEARCH("-", B18) - 1)) + VALUE(MID(B18, SEARCH("-", B18) + 2, LEN(B18) - SEARCH("-", B18) - 2))) / 2, IF(AND(ISNUMBER(SEARCH("&lt;=", B18)), ISNUMBER(VALUE(MID(B18, SEARCH("&lt;=", B18) + 3, LEN(B18) - SEARCH("&lt;=", B18) - 3)))), VALUE(MID(B18, SEARCH("&lt;=", B18) + 3, LEN(B18) - SEARCH("&lt;=", B18) - 3)) / 2, ""))</f>
+        <f t="shared" ref="F18:F33" si="0">IF(ISNUMBER(SEARCH("-", B18)), (VALUE(LEFT(B18, SEARCH("-", B18) - 1)) + VALUE(MID(B18, SEARCH("-", B18) + 2, LEN(B18) - SEARCH("-", B18) - 2))) / 2, IF(AND(ISNUMBER(SEARCH("&lt;=", B18)), ISNUMBER(VALUE(MID(B18, SEARCH("&lt;=", B18) + 3, LEN(B18) - SEARCH("&lt;=", B18) - 3)))), VALUE(MID(B18, SEARCH("&lt;=", B18) + 3, LEN(B18) - SEARCH("&lt;=", B18) - 3)) / 2, ""))</f>
         <v/>
       </c>
     </row>
@@ -16911,7 +17119,7 @@
         <v>51</v>
       </c>
       <c r="F19">
-        <f>IF(ISNUMBER(SEARCH("-", B19)), (VALUE(LEFT(B19, SEARCH("-", B19) - 1)) + VALUE(MID(B19, SEARCH("-", B19) + 2, LEN(B19) - SEARCH("-", B19) - 2))) / 2, IF(AND(ISNUMBER(SEARCH("&lt;=", B19)), ISNUMBER(VALUE(MID(B19, SEARCH("&lt;=", B19) + 3, LEN(B19) - SEARCH("&lt;=", B19) - 3)))), VALUE(MID(B19, SEARCH("&lt;=", B19) + 3, LEN(B19) - SEARCH("&lt;=", B19) - 3)) / 2, ""))</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="I19" t="s">
@@ -16930,7 +17138,7 @@
       </c>
       <c r="D20" s="12"/>
       <c r="F20">
-        <f>IF(ISNUMBER(SEARCH("-", B20)), (VALUE(LEFT(B20, SEARCH("-", B20) - 1)) + VALUE(MID(B20, SEARCH("-", B20) + 2, LEN(B20) - SEARCH("-", B20) - 2))) / 2, IF(AND(ISNUMBER(SEARCH("&lt;=", B20)), ISNUMBER(VALUE(MID(B20, SEARCH("&lt;=", B20) + 3, LEN(B20) - SEARCH("&lt;=", B20) - 3)))), VALUE(MID(B20, SEARCH("&lt;=", B20) + 3, LEN(B20) - SEARCH("&lt;=", B20) - 3)) / 2, ""))</f>
+        <f t="shared" si="0"/>
         <v>0.215</v>
       </c>
     </row>
@@ -16946,7 +17154,7 @@
       </c>
       <c r="D21" s="9"/>
       <c r="F21">
-        <f>IF(ISNUMBER(SEARCH("-", B21)), (VALUE(LEFT(B21, SEARCH("-", B21) - 1)) + VALUE(MID(B21, SEARCH("-", B21) + 2, LEN(B21) - SEARCH("-", B21) - 2))) / 2, IF(AND(ISNUMBER(SEARCH("&lt;=", B21)), ISNUMBER(VALUE(MID(B21, SEARCH("&lt;=", B21) + 3, LEN(B21) - SEARCH("&lt;=", B21) - 3)))), VALUE(MID(B21, SEARCH("&lt;=", B21) + 3, LEN(B21) - SEARCH("&lt;=", B21) - 3)) / 2, ""))</f>
+        <f t="shared" si="0"/>
         <v>1.5499999999999998</v>
       </c>
     </row>
@@ -16962,7 +17170,7 @@
       </c>
       <c r="D22" s="12"/>
       <c r="F22">
-        <f>IF(ISNUMBER(SEARCH("-", B22)), (VALUE(LEFT(B22, SEARCH("-", B22) - 1)) + VALUE(MID(B22, SEARCH("-", B22) + 2, LEN(B22) - SEARCH("-", B22) - 2))) / 2, IF(AND(ISNUMBER(SEARCH("&lt;=", B22)), ISNUMBER(VALUE(MID(B22, SEARCH("&lt;=", B22) + 3, LEN(B22) - SEARCH("&lt;=", B22) - 3)))), VALUE(MID(B22, SEARCH("&lt;=", B22) + 3, LEN(B22) - SEARCH("&lt;=", B22) - 3)) / 2, ""))</f>
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
     </row>
@@ -16978,7 +17186,7 @@
       </c>
       <c r="D23" s="9"/>
       <c r="F23">
-        <f>IF(ISNUMBER(SEARCH("-", B23)), (VALUE(LEFT(B23, SEARCH("-", B23) - 1)) + VALUE(MID(B23, SEARCH("-", B23) + 2, LEN(B23) - SEARCH("-", B23) - 2))) / 2, IF(AND(ISNUMBER(SEARCH("&lt;=", B23)), ISNUMBER(VALUE(MID(B23, SEARCH("&lt;=", B23) + 3, LEN(B23) - SEARCH("&lt;=", B23) - 3)))), VALUE(MID(B23, SEARCH("&lt;=", B23) + 3, LEN(B23) - SEARCH("&lt;=", B23) - 3)) / 2, ""))</f>
+        <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
     </row>
@@ -16994,7 +17202,7 @@
       </c>
       <c r="D24" s="12"/>
       <c r="F24">
-        <f>IF(ISNUMBER(SEARCH("-", B24)), (VALUE(LEFT(B24, SEARCH("-", B24) - 1)) + VALUE(MID(B24, SEARCH("-", B24) + 2, LEN(B24) - SEARCH("-", B24) - 2))) / 2, IF(AND(ISNUMBER(SEARCH("&lt;=", B24)), ISNUMBER(VALUE(MID(B24, SEARCH("&lt;=", B24) + 3, LEN(B24) - SEARCH("&lt;=", B24) - 3)))), VALUE(MID(B24, SEARCH("&lt;=", B24) + 3, LEN(B24) - SEARCH("&lt;=", B24) - 3)) / 2, ""))</f>
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
     </row>
@@ -17004,7 +17212,7 @@
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
       <c r="F25" t="str">
-        <f>IF(ISNUMBER(SEARCH("-", B25)), (VALUE(LEFT(B25, SEARCH("-", B25) - 1)) + VALUE(MID(B25, SEARCH("-", B25) + 2, LEN(B25) - SEARCH("-", B25) - 2))) / 2, IF(AND(ISNUMBER(SEARCH("&lt;=", B25)), ISNUMBER(VALUE(MID(B25, SEARCH("&lt;=", B25) + 3, LEN(B25) - SEARCH("&lt;=", B25) - 3)))), VALUE(MID(B25, SEARCH("&lt;=", B25) + 3, LEN(B25) - SEARCH("&lt;=", B25) - 3)) / 2, ""))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -17014,7 +17222,7 @@
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
       <c r="F26" t="str">
-        <f>IF(ISNUMBER(SEARCH("-", B26)), (VALUE(LEFT(B26, SEARCH("-", B26) - 1)) + VALUE(MID(B26, SEARCH("-", B26) + 2, LEN(B26) - SEARCH("-", B26) - 2))) / 2, IF(AND(ISNUMBER(SEARCH("&lt;=", B26)), ISNUMBER(VALUE(MID(B26, SEARCH("&lt;=", B26) + 3, LEN(B26) - SEARCH("&lt;=", B26) - 3)))), VALUE(MID(B26, SEARCH("&lt;=", B26) + 3, LEN(B26) - SEARCH("&lt;=", B26) - 3)) / 2, ""))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -17030,7 +17238,7 @@
       </c>
       <c r="D27" s="9"/>
       <c r="F27">
-        <f>IF(ISNUMBER(SEARCH("-", B27)), (VALUE(LEFT(B27, SEARCH("-", B27) - 1)) + VALUE(MID(B27, SEARCH("-", B27) + 2, LEN(B27) - SEARCH("-", B27) - 2))) / 2, IF(AND(ISNUMBER(SEARCH("&lt;=", B27)), ISNUMBER(VALUE(MID(B27, SEARCH("&lt;=", B27) + 3, LEN(B27) - SEARCH("&lt;=", B27) - 3)))), VALUE(MID(B27, SEARCH("&lt;=", B27) + 3, LEN(B27) - SEARCH("&lt;=", B27) - 3)) / 2, ""))</f>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
     </row>
@@ -17046,7 +17254,7 @@
       </c>
       <c r="D28" s="12"/>
       <c r="F28">
-        <f>IF(ISNUMBER(SEARCH("-", B28)), (VALUE(LEFT(B28, SEARCH("-", B28) - 1)) + VALUE(MID(B28, SEARCH("-", B28) + 2, LEN(B28) - SEARCH("-", B28) - 2))) / 2, IF(AND(ISNUMBER(SEARCH("&lt;=", B28)), ISNUMBER(VALUE(MID(B28, SEARCH("&lt;=", B28) + 3, LEN(B28) - SEARCH("&lt;=", B28) - 3)))), VALUE(MID(B28, SEARCH("&lt;=", B28) + 3, LEN(B28) - SEARCH("&lt;=", B28) - 3)) / 2, ""))</f>
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
     </row>
@@ -17062,7 +17270,7 @@
       </c>
       <c r="D29" s="7"/>
       <c r="F29">
-        <f>IF(ISNUMBER(SEARCH("-", B29)), (VALUE(LEFT(B29, SEARCH("-", B29) - 1)) + VALUE(MID(B29, SEARCH("-", B29) + 2, LEN(B29) - SEARCH("-", B29) - 2))) / 2, IF(AND(ISNUMBER(SEARCH("&lt;=", B29)), ISNUMBER(VALUE(MID(B29, SEARCH("&lt;=", B29) + 3, LEN(B29) - SEARCH("&lt;=", B29) - 3)))), VALUE(MID(B29, SEARCH("&lt;=", B29) + 3, LEN(B29) - SEARCH("&lt;=", B29) - 3)) / 2, ""))</f>
+        <f t="shared" si="0"/>
         <v>5.7</v>
       </c>
     </row>
@@ -17072,7 +17280,7 @@
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
       <c r="F30" t="str">
-        <f>IF(ISNUMBER(SEARCH("-", B30)), (VALUE(LEFT(B30, SEARCH("-", B30) - 1)) + VALUE(MID(B30, SEARCH("-", B30) + 2, LEN(B30) - SEARCH("-", B30) - 2))) / 2, IF(AND(ISNUMBER(SEARCH("&lt;=", B30)), ISNUMBER(VALUE(MID(B30, SEARCH("&lt;=", B30) + 3, LEN(B30) - SEARCH("&lt;=", B30) - 3)))), VALUE(MID(B30, SEARCH("&lt;=", B30) + 3, LEN(B30) - SEARCH("&lt;=", B30) - 3)) / 2, ""))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -17082,7 +17290,7 @@
       <c r="C31" s="8"/>
       <c r="D31" s="7"/>
       <c r="F31" t="str">
-        <f>IF(ISNUMBER(SEARCH("-", B31)), (VALUE(LEFT(B31, SEARCH("-", B31) - 1)) + VALUE(MID(B31, SEARCH("-", B31) + 2, LEN(B31) - SEARCH("-", B31) - 2))) / 2, IF(AND(ISNUMBER(SEARCH("&lt;=", B31)), ISNUMBER(VALUE(MID(B31, SEARCH("&lt;=", B31) + 3, LEN(B31) - SEARCH("&lt;=", B31) - 3)))), VALUE(MID(B31, SEARCH("&lt;=", B31) + 3, LEN(B31) - SEARCH("&lt;=", B31) - 3)) / 2, ""))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -17092,13 +17300,13 @@
       <c r="C32" s="11"/>
       <c r="D32" s="7"/>
       <c r="F32" t="str">
-        <f>IF(ISNUMBER(SEARCH("-", B32)), (VALUE(LEFT(B32, SEARCH("-", B32) - 1)) + VALUE(MID(B32, SEARCH("-", B32) + 2, LEN(B32) - SEARCH("-", B32) - 2))) / 2, IF(AND(ISNUMBER(SEARCH("&lt;=", B32)), ISNUMBER(VALUE(MID(B32, SEARCH("&lt;=", B32) + 3, LEN(B32) - SEARCH("&lt;=", B32) - 3)))), VALUE(MID(B32, SEARCH("&lt;=", B32) + 3, LEN(B32) - SEARCH("&lt;=", B32) - 3)) / 2, ""))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F33" t="str">
-        <f>IF(ISNUMBER(SEARCH("-", B33)), (VALUE(LEFT(B33, SEARCH("-", B33) - 1)) + VALUE(MID(B33, SEARCH("-", B33) + 2, LEN(B33) - SEARCH("-", B33) - 2))) / 2, IF(AND(ISNUMBER(SEARCH("&lt;=", B33)), ISNUMBER(VALUE(MID(B33, SEARCH("&lt;=", B33) + 3, LEN(B33) - SEARCH("&lt;=", B33) - 3)))), VALUE(MID(B33, SEARCH("&lt;=", B33) + 3, LEN(B33) - SEARCH("&lt;=", B33) - 3)) / 2, ""))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -17107,4 +17315,2893 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4222D4A3-B7EE-4742-BFAA-F076CF3B80CE}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:M70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="C2">
+        <v>2.1</v>
+      </c>
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>0.1</v>
+      </c>
+      <c r="G2">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H2">
+        <v>0.1</v>
+      </c>
+      <c r="I2">
+        <v>7.4</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="D3">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.75</v>
+      </c>
+      <c r="F3">
+        <v>0.15</v>
+      </c>
+      <c r="G3">
+        <v>0.15</v>
+      </c>
+      <c r="H3">
+        <v>0.1</v>
+      </c>
+      <c r="I3">
+        <v>5.75</v>
+      </c>
+      <c r="J3">
+        <v>0.15</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E4">
+        <v>1.5</v>
+      </c>
+      <c r="F4">
+        <v>0.45</v>
+      </c>
+      <c r="G4">
+        <v>0.125</v>
+      </c>
+      <c r="H4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I4">
+        <v>4.2</v>
+      </c>
+      <c r="J4">
+        <v>0.15</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5">
+        <v>0.13</v>
+      </c>
+      <c r="C5">
+        <v>0.05</v>
+      </c>
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="E5">
+        <v>1.4</v>
+      </c>
+      <c r="F5">
+        <v>0.45</v>
+      </c>
+      <c r="G5">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I5">
+        <v>4.5</v>
+      </c>
+      <c r="J5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.95</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
+      </c>
+      <c r="E6">
+        <v>2.5</v>
+      </c>
+      <c r="F6">
+        <v>0.05</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="H6">
+        <v>0.1</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C7">
+        <v>1.75</v>
+      </c>
+      <c r="D7">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E7">
+        <v>2.35</v>
+      </c>
+      <c r="F7">
+        <v>0.05</v>
+      </c>
+      <c r="G7">
+        <v>0.06</v>
+      </c>
+      <c r="H7">
+        <v>0.03</v>
+      </c>
+      <c r="I7">
+        <v>6.2</v>
+      </c>
+      <c r="J7">
+        <v>0.13</v>
+      </c>
+      <c r="K7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8">
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.125</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.115</v>
+      </c>
+      <c r="G8">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.05</v>
+      </c>
+      <c r="I8">
+        <v>6.15</v>
+      </c>
+      <c r="J8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <v>0.25</v>
+      </c>
+      <c r="E9">
+        <v>2.7</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.25</v>
+      </c>
+      <c r="H9">
+        <v>0.1</v>
+      </c>
+      <c r="I9">
+        <v>5.7</v>
+      </c>
+      <c r="J9">
+        <v>0.1</v>
+      </c>
+      <c r="K9">
+        <v>0.05</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.105</v>
+      </c>
+      <c r="D10">
+        <v>0.15</v>
+      </c>
+      <c r="E10">
+        <v>1.7</v>
+      </c>
+      <c r="F10">
+        <v>0.05</v>
+      </c>
+      <c r="G10">
+        <v>0.1</v>
+      </c>
+      <c r="H10">
+        <v>0.05</v>
+      </c>
+      <c r="I10">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J10">
+        <v>0.15</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="D11">
+        <v>0.06</v>
+      </c>
+      <c r="E11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.05</v>
+      </c>
+      <c r="H11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I11">
+        <v>4.5</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C12">
+        <v>0.1</v>
+      </c>
+      <c r="D12">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E12">
+        <v>2.5</v>
+      </c>
+      <c r="F12">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G12">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J12">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="K12">
+        <v>0.05</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13">
+        <v>0.1</v>
+      </c>
+      <c r="C13">
+        <v>0.1</v>
+      </c>
+      <c r="D13">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G13">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H13">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="K13">
+        <v>0.05</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14">
+        <v>0.1</v>
+      </c>
+      <c r="C14">
+        <v>0.1</v>
+      </c>
+      <c r="D14">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G14">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H14">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="K14">
+        <v>0.05</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15">
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="C15">
+        <v>0.1</v>
+      </c>
+      <c r="D15">
+        <v>0.2</v>
+      </c>
+      <c r="E15">
+        <v>1.2</v>
+      </c>
+      <c r="F15">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G15">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I15">
+        <v>4.5</v>
+      </c>
+      <c r="J15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" s="14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="I16" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="K16" s="14">
+        <v>0</v>
+      </c>
+      <c r="L16" s="14">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="14">
+        <v>3.1500000000000004</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="H17" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="I17" s="14">
+        <v>4.75</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0</v>
+      </c>
+      <c r="K17" s="14">
+        <v>0</v>
+      </c>
+      <c r="L17" s="14">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" s="14">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E18" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="F18" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="G18" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="H18" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="I18" s="14">
+        <v>5</v>
+      </c>
+      <c r="J18" s="14">
+        <v>0</v>
+      </c>
+      <c r="K18" s="14">
+        <v>0</v>
+      </c>
+      <c r="L18" s="14">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="C19">
+        <v>0.05</v>
+      </c>
+      <c r="D19">
+        <v>0.2</v>
+      </c>
+      <c r="E19">
+        <v>0.75</v>
+      </c>
+      <c r="F19">
+        <v>0.35</v>
+      </c>
+      <c r="G19">
+        <v>0.15</v>
+      </c>
+      <c r="H19">
+        <v>0.05</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.75</v>
+      </c>
+      <c r="D20">
+        <v>0.06</v>
+      </c>
+      <c r="E20">
+        <v>1.7</v>
+      </c>
+      <c r="F20">
+        <v>0.125</v>
+      </c>
+      <c r="G20">
+        <v>0.04</v>
+      </c>
+      <c r="H20">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I20">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J20">
+        <v>0.115</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21">
+        <v>0.1</v>
+      </c>
+      <c r="C21">
+        <v>0.2</v>
+      </c>
+      <c r="D21">
+        <v>0.25</v>
+      </c>
+      <c r="E21">
+        <v>1.9</v>
+      </c>
+      <c r="F21">
+        <v>0.375</v>
+      </c>
+      <c r="G21">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H21">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="J21" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K21" s="14" cm="1">
+        <f t="array" ref="K21">IFERROR(INDEX($A$158:$D$160, MATCH(TRUE, ISNUMBER(FIND(Y$1, $O$158:$O$160)), 0), 6), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="14" cm="1">
+        <f t="array" ref="L21">IFERROR(INDEX($A$158:$D$160, MATCH(TRUE, ISNUMBER(FIND(Z$1, $O$158:$O$160)), 0), 6), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" s="14">
+        <v>0</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="D22" s="14">
+        <v>0.06</v>
+      </c>
+      <c r="E22" s="14">
+        <v>1.65</v>
+      </c>
+      <c r="F22" s="14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G22" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="H22" s="14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I22" s="14">
+        <v>4.7</v>
+      </c>
+      <c r="J22" s="14">
+        <v>0</v>
+      </c>
+      <c r="K22" s="14">
+        <v>0</v>
+      </c>
+      <c r="L22" s="14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23">
+        <v>0.02</v>
+      </c>
+      <c r="C23">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D23">
+        <v>0.15</v>
+      </c>
+      <c r="E23">
+        <v>1.25</v>
+      </c>
+      <c r="F23">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G23">
+        <v>0.1</v>
+      </c>
+      <c r="H23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I23">
+        <v>5.35</v>
+      </c>
+      <c r="J23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.05</v>
+      </c>
+      <c r="D24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E24">
+        <v>0.05</v>
+      </c>
+      <c r="F24">
+        <v>0.25</v>
+      </c>
+      <c r="G24">
+        <v>0.15</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1.3</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25">
+        <v>0.2</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>0.06</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G25">
+        <v>0.05</v>
+      </c>
+      <c r="H25">
+        <v>0.05</v>
+      </c>
+      <c r="I25">
+        <v>6</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>231</v>
+      </c>
+      <c r="B26">
+        <v>0.1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0.15</v>
+      </c>
+      <c r="E26">
+        <v>1.75</v>
+      </c>
+      <c r="F26">
+        <v>0.05</v>
+      </c>
+      <c r="G26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H26">
+        <v>0.05</v>
+      </c>
+      <c r="I26">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J26">
+        <v>0.11499999999999999</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>232</v>
+      </c>
+      <c r="B27">
+        <v>0.1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0.06</v>
+      </c>
+      <c r="E27">
+        <v>2.5</v>
+      </c>
+      <c r="F27">
+        <v>0.125</v>
+      </c>
+      <c r="G27">
+        <v>0.05</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>11.5</v>
+      </c>
+      <c r="J27">
+        <v>0.19</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>233</v>
+      </c>
+      <c r="B28">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D28">
+        <v>0.125</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>0.05</v>
+      </c>
+      <c r="G28">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H28">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>234</v>
+      </c>
+      <c r="B29">
+        <v>0.10500000000000001</v>
+      </c>
+      <c r="C29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D29">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E29">
+        <v>2.15</v>
+      </c>
+      <c r="F29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G29">
+        <v>0.06</v>
+      </c>
+      <c r="H29">
+        <v>0.05</v>
+      </c>
+      <c r="I29">
+        <v>8.9</v>
+      </c>
+      <c r="J29">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>235</v>
+      </c>
+      <c r="B30">
+        <v>0.02</v>
+      </c>
+      <c r="C30">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="D30">
+        <v>0.05</v>
+      </c>
+      <c r="E30">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="F30">
+        <v>0.25</v>
+      </c>
+      <c r="G30">
+        <v>0.06</v>
+      </c>
+      <c r="H30">
+        <v>0.05</v>
+      </c>
+      <c r="I30">
+        <v>8.4</v>
+      </c>
+      <c r="J30">
+        <v>0.155</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>236</v>
+      </c>
+      <c r="B31">
+        <v>0.2</v>
+      </c>
+      <c r="C31">
+        <v>0.05</v>
+      </c>
+      <c r="D31">
+        <v>0.2</v>
+      </c>
+      <c r="E31">
+        <v>2.8</v>
+      </c>
+      <c r="F31">
+        <v>0.25</v>
+      </c>
+      <c r="G31">
+        <v>0.15</v>
+      </c>
+      <c r="H31">
+        <v>0.05</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>237</v>
+      </c>
+      <c r="B32">
+        <v>0.02</v>
+      </c>
+      <c r="C32">
+        <v>1.9</v>
+      </c>
+      <c r="D32">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E32">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F32">
+        <v>0.02</v>
+      </c>
+      <c r="G32">
+        <v>0.05</v>
+      </c>
+      <c r="H32">
+        <v>0.03</v>
+      </c>
+      <c r="I32">
+        <v>6.2</v>
+      </c>
+      <c r="J32">
+        <v>8.4999999999999992E-2</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>238</v>
+      </c>
+      <c r="B33">
+        <v>0.02</v>
+      </c>
+      <c r="C33">
+        <v>0.65</v>
+      </c>
+      <c r="D33">
+        <v>0.125</v>
+      </c>
+      <c r="E33">
+        <v>1.9</v>
+      </c>
+      <c r="F33">
+        <v>0.02</v>
+      </c>
+      <c r="G33">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H33">
+        <v>0.03</v>
+      </c>
+      <c r="I33">
+        <v>6.2</v>
+      </c>
+      <c r="J33">
+        <v>8.4999999999999992E-2</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>239</v>
+      </c>
+      <c r="B34">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C34">
+        <v>1.6</v>
+      </c>
+      <c r="D34">
+        <v>0.1</v>
+      </c>
+      <c r="E34">
+        <v>2.4</v>
+      </c>
+      <c r="F34">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G34">
+        <v>0.1</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>7.2</v>
+      </c>
+      <c r="J34">
+        <v>0.155</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>240</v>
+      </c>
+      <c r="B35">
+        <v>0.1</v>
+      </c>
+      <c r="C35">
+        <v>0.125</v>
+      </c>
+      <c r="D35">
+        <v>0.2</v>
+      </c>
+      <c r="E35">
+        <v>1.3</v>
+      </c>
+      <c r="F35">
+        <v>0.15</v>
+      </c>
+      <c r="G35">
+        <v>0.1</v>
+      </c>
+      <c r="H35">
+        <v>0.03</v>
+      </c>
+      <c r="I35">
+        <v>7.1</v>
+      </c>
+      <c r="J35">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C36">
+        <v>0.02</v>
+      </c>
+      <c r="D36">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E36">
+        <v>1.55</v>
+      </c>
+      <c r="F36">
+        <v>0.02</v>
+      </c>
+      <c r="G36">
+        <v>0.06</v>
+      </c>
+      <c r="H36">
+        <v>0.04</v>
+      </c>
+      <c r="I36">
+        <v>7.5</v>
+      </c>
+      <c r="J36">
+        <v>0.1</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>242</v>
+      </c>
+      <c r="B37">
+        <v>0.15</v>
+      </c>
+      <c r="C37">
+        <v>1.5499999999999998</v>
+      </c>
+      <c r="D37">
+        <v>0.25</v>
+      </c>
+      <c r="E37">
+        <v>2.6</v>
+      </c>
+      <c r="F37">
+        <v>0.25</v>
+      </c>
+      <c r="G37">
+        <v>0.2</v>
+      </c>
+      <c r="H37">
+        <v>0.125</v>
+      </c>
+      <c r="I37">
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="J37">
+        <v>0.125</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>243</v>
+      </c>
+      <c r="B38">
+        <v>0.02</v>
+      </c>
+      <c r="C38">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D38">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E38">
+        <v>2.25</v>
+      </c>
+      <c r="F38">
+        <v>0.05</v>
+      </c>
+      <c r="G38">
+        <v>0.06</v>
+      </c>
+      <c r="H38">
+        <v>0.03</v>
+      </c>
+      <c r="I38">
+        <v>6.2</v>
+      </c>
+      <c r="J38">
+        <v>0.11499999999999999</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>244</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1.5499999999999998</v>
+      </c>
+      <c r="D39">
+        <v>0.06</v>
+      </c>
+      <c r="E39">
+        <v>1.9</v>
+      </c>
+      <c r="F39">
+        <v>0.1</v>
+      </c>
+      <c r="G39">
+        <v>0.05</v>
+      </c>
+      <c r="H39">
+        <v>0.04</v>
+      </c>
+      <c r="I39">
+        <v>9.1</v>
+      </c>
+      <c r="J39">
+        <v>0.1</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>245</v>
+      </c>
+      <c r="B40">
+        <v>0.2</v>
+      </c>
+      <c r="C40">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D40">
+        <v>0.1</v>
+      </c>
+      <c r="E40">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="F40">
+        <v>0.1</v>
+      </c>
+      <c r="G40">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H40">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I40">
+        <v>6.8</v>
+      </c>
+      <c r="J40">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>246</v>
+      </c>
+      <c r="B41">
+        <v>0.155</v>
+      </c>
+      <c r="C41">
+        <v>2.1</v>
+      </c>
+      <c r="D41">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E41">
+        <v>2.4</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0.06</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>7.4</v>
+      </c>
+      <c r="J41">
+        <v>0.3</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>247</v>
+      </c>
+      <c r="B42">
+        <v>0.02</v>
+      </c>
+      <c r="C42">
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="D42">
+        <v>0.04</v>
+      </c>
+      <c r="E42">
+        <v>1.65</v>
+      </c>
+      <c r="F42">
+        <v>0.02</v>
+      </c>
+      <c r="G42">
+        <v>0.03</v>
+      </c>
+      <c r="H42">
+        <v>0.03</v>
+      </c>
+      <c r="I42">
+        <v>7.7</v>
+      </c>
+      <c r="J42">
+        <v>0.1</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>248</v>
+      </c>
+      <c r="B43">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E43">
+        <v>2.6</v>
+      </c>
+      <c r="F43">
+        <v>0.05</v>
+      </c>
+      <c r="G43">
+        <v>0.06</v>
+      </c>
+      <c r="H43">
+        <v>0.05</v>
+      </c>
+      <c r="I43">
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="J43">
+        <v>0.1</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>249</v>
+      </c>
+      <c r="B44">
+        <v>0.23</v>
+      </c>
+      <c r="C44">
+        <v>1.6</v>
+      </c>
+      <c r="D44">
+        <v>0.25</v>
+      </c>
+      <c r="E44">
+        <v>2.5</v>
+      </c>
+      <c r="F44">
+        <v>0.15</v>
+      </c>
+      <c r="G44">
+        <v>0.2</v>
+      </c>
+      <c r="H44">
+        <v>0.1</v>
+      </c>
+      <c r="I44">
+        <v>5.6</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>250</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0.65</v>
+      </c>
+      <c r="D45">
+        <v>0.3</v>
+      </c>
+      <c r="E45">
+        <v>1.6</v>
+      </c>
+      <c r="F45">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G45">
+        <v>0.2</v>
+      </c>
+      <c r="H45">
+        <v>0.1</v>
+      </c>
+      <c r="I45">
+        <v>7.5</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>251</v>
+      </c>
+      <c r="B46">
+        <v>0.02</v>
+      </c>
+      <c r="C46">
+        <v>1.5</v>
+      </c>
+      <c r="D46">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>0.125</v>
+      </c>
+      <c r="G46">
+        <v>0.06</v>
+      </c>
+      <c r="H46">
+        <v>0.03</v>
+      </c>
+      <c r="I46">
+        <v>7.2</v>
+      </c>
+      <c r="J46">
+        <v>0.105</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>252</v>
+      </c>
+      <c r="B47">
+        <v>0.02</v>
+      </c>
+      <c r="C47">
+        <v>1.65</v>
+      </c>
+      <c r="D47">
+        <v>0.04</v>
+      </c>
+      <c r="E47">
+        <v>1.5</v>
+      </c>
+      <c r="F47">
+        <v>0.02</v>
+      </c>
+      <c r="G47">
+        <v>0.03</v>
+      </c>
+      <c r="H47">
+        <v>0.03</v>
+      </c>
+      <c r="I47">
+        <v>7.5</v>
+      </c>
+      <c r="J47">
+        <v>0.11499999999999999</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>253</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>1.5</v>
+      </c>
+      <c r="D48">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E48">
+        <v>2.5</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0.06</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>9</v>
+      </c>
+      <c r="J48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K48">
+        <v>0.1</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>254</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>2.4</v>
+      </c>
+      <c r="D49">
+        <v>0.06</v>
+      </c>
+      <c r="E49">
+        <v>1.7</v>
+      </c>
+      <c r="F49">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G49">
+        <v>0.05</v>
+      </c>
+      <c r="H49">
+        <v>0.03</v>
+      </c>
+      <c r="I49">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J49">
+        <v>0.11499999999999999</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>255</v>
+      </c>
+      <c r="B50">
+        <v>0.02</v>
+      </c>
+      <c r="C50">
+        <v>1.75</v>
+      </c>
+      <c r="D50">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E50">
+        <v>1.95</v>
+      </c>
+      <c r="F50">
+        <v>0.02</v>
+      </c>
+      <c r="G50">
+        <v>0.06</v>
+      </c>
+      <c r="H50">
+        <v>0.03</v>
+      </c>
+      <c r="I50">
+        <v>7.9</v>
+      </c>
+      <c r="J50">
+        <v>0.1</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>256</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D51">
+        <v>0.05</v>
+      </c>
+      <c r="E51">
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="F51">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G51">
+        <v>0.05</v>
+      </c>
+      <c r="H51">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I51">
+        <v>5</v>
+      </c>
+      <c r="J51">
+        <v>0.185</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>257</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0.8</v>
+      </c>
+      <c r="D52">
+        <v>0.15</v>
+      </c>
+      <c r="E52">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F52">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G52">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H52">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I52">
+        <v>4.7</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>258</v>
+      </c>
+      <c r="B53">
+        <v>0.05</v>
+      </c>
+      <c r="C53">
+        <v>0.7</v>
+      </c>
+      <c r="D53">
+        <v>0.15</v>
+      </c>
+      <c r="E53">
+        <v>1.65</v>
+      </c>
+      <c r="F53">
+        <v>0.05</v>
+      </c>
+      <c r="G53">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H53">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I53">
+        <v>4.7</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>259</v>
+      </c>
+      <c r="B54">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C54">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D54">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E54">
+        <v>2.15</v>
+      </c>
+      <c r="F54">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G54">
+        <v>0.06</v>
+      </c>
+      <c r="H54">
+        <v>0.05</v>
+      </c>
+      <c r="I54">
+        <v>8.9</v>
+      </c>
+      <c r="J54">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>260</v>
+      </c>
+      <c r="B55">
+        <v>0.02</v>
+      </c>
+      <c r="C55">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="D55">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E55">
+        <v>1.95</v>
+      </c>
+      <c r="F55">
+        <v>0.02</v>
+      </c>
+      <c r="G55">
+        <v>0.05</v>
+      </c>
+      <c r="H55">
+        <v>0.03</v>
+      </c>
+      <c r="I55">
+        <v>6.6</v>
+      </c>
+      <c r="J55">
+        <v>8.4999999999999992E-2</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>261</v>
+      </c>
+      <c r="B56">
+        <v>0.16</v>
+      </c>
+      <c r="C56">
+        <v>1.5499999999999998</v>
+      </c>
+      <c r="D56">
+        <v>0.1</v>
+      </c>
+      <c r="E56">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F56">
+        <v>0.1</v>
+      </c>
+      <c r="G56">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H56">
+        <v>0.05</v>
+      </c>
+      <c r="I56">
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>262</v>
+      </c>
+      <c r="B57">
+        <v>0.02</v>
+      </c>
+      <c r="C57">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D57">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E57">
+        <v>2.35</v>
+      </c>
+      <c r="F57">
+        <v>0.05</v>
+      </c>
+      <c r="G57">
+        <v>0.06</v>
+      </c>
+      <c r="H57">
+        <v>0.03</v>
+      </c>
+      <c r="I57">
+        <v>6.4</v>
+      </c>
+      <c r="J57">
+        <v>0.11499999999999999</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>263</v>
+      </c>
+      <c r="B58">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C58">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D58">
+        <v>0.125</v>
+      </c>
+      <c r="E58">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F58">
+        <v>0.05</v>
+      </c>
+      <c r="G58">
+        <v>0.125</v>
+      </c>
+      <c r="H58">
+        <v>0.05</v>
+      </c>
+      <c r="I58">
+        <v>8</v>
+      </c>
+      <c r="J58">
+        <v>0.11499999999999999</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>264</v>
+      </c>
+      <c r="B59">
+        <v>0.02</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>0.06</v>
+      </c>
+      <c r="E59">
+        <v>2.4</v>
+      </c>
+      <c r="F59">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G59">
+        <v>0.05</v>
+      </c>
+      <c r="H59">
+        <v>0.05</v>
+      </c>
+      <c r="I59">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J59">
+        <v>0.1</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>265</v>
+      </c>
+      <c r="B60">
+        <v>0.23</v>
+      </c>
+      <c r="C60">
+        <v>1.6</v>
+      </c>
+      <c r="D60">
+        <v>0.1</v>
+      </c>
+      <c r="E60">
+        <v>2.5</v>
+      </c>
+      <c r="F60">
+        <v>0.05</v>
+      </c>
+      <c r="G60">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H60">
+        <v>0.05</v>
+      </c>
+      <c r="I60">
+        <v>5.6</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>266</v>
+      </c>
+      <c r="B61">
+        <v>0.23</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>0.25</v>
+      </c>
+      <c r="E61">
+        <v>2.75</v>
+      </c>
+      <c r="F61">
+        <v>0.15</v>
+      </c>
+      <c r="G61">
+        <v>0.2</v>
+      </c>
+      <c r="H61">
+        <v>0.1</v>
+      </c>
+      <c r="I61">
+        <v>6.8</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>267</v>
+      </c>
+      <c r="B62">
+        <v>0.02</v>
+      </c>
+      <c r="C62">
+        <v>1.5499999999999998</v>
+      </c>
+      <c r="D62">
+        <v>0.05</v>
+      </c>
+      <c r="E62">
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="F62">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G62">
+        <v>0.04</v>
+      </c>
+      <c r="H62">
+        <v>0.03</v>
+      </c>
+      <c r="I62">
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="J62">
+        <v>0.13</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>268</v>
+      </c>
+      <c r="B63">
+        <v>0.05</v>
+      </c>
+      <c r="C63">
+        <v>1.65</v>
+      </c>
+      <c r="D63">
+        <v>0.125</v>
+      </c>
+      <c r="E63">
+        <v>1.5</v>
+      </c>
+      <c r="F63">
+        <v>0.05</v>
+      </c>
+      <c r="G63">
+        <v>0.125</v>
+      </c>
+      <c r="H63">
+        <v>0.03</v>
+      </c>
+      <c r="I63">
+        <v>7.6</v>
+      </c>
+      <c r="J63">
+        <v>0.11499999999999999</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>269</v>
+      </c>
+      <c r="B64">
+        <v>0.15</v>
+      </c>
+      <c r="C64">
+        <v>0.1</v>
+      </c>
+      <c r="D64">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E64">
+        <v>1.5</v>
+      </c>
+      <c r="F64">
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="G64">
+        <v>0.15</v>
+      </c>
+      <c r="H64">
+        <v>0.1</v>
+      </c>
+      <c r="I64">
+        <v>4.5</v>
+      </c>
+      <c r="J64">
+        <v>0.125</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0.05</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>270</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0.7</v>
+      </c>
+      <c r="D65">
+        <v>0.04</v>
+      </c>
+      <c r="E65">
+        <v>1.65</v>
+      </c>
+      <c r="F65">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G65">
+        <v>0.03</v>
+      </c>
+      <c r="H65">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I65">
+        <v>4.7</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>271</v>
+      </c>
+      <c r="B66">
+        <v>0.15</v>
+      </c>
+      <c r="C66">
+        <v>1.6</v>
+      </c>
+      <c r="D66">
+        <v>0.06</v>
+      </c>
+      <c r="E66">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F66">
+        <v>0.05</v>
+      </c>
+      <c r="G66">
+        <v>0.05</v>
+      </c>
+      <c r="H66">
+        <v>0.03</v>
+      </c>
+      <c r="I66">
+        <v>7.85</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>272</v>
+      </c>
+      <c r="B67">
+        <v>0.02</v>
+      </c>
+      <c r="C67">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D67">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E67">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F67">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G67">
+        <v>0.03</v>
+      </c>
+      <c r="H67">
+        <v>0.03</v>
+      </c>
+      <c r="I67">
+        <v>8</v>
+      </c>
+      <c r="J67">
+        <v>0.11499999999999999</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>273</v>
+      </c>
+      <c r="B68">
+        <v>0.16</v>
+      </c>
+      <c r="C68">
+        <v>1.75</v>
+      </c>
+      <c r="D68">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E68">
+        <v>2.25</v>
+      </c>
+      <c r="F68">
+        <v>0.1</v>
+      </c>
+      <c r="G68">
+        <v>0.06</v>
+      </c>
+      <c r="H68">
+        <v>0.125</v>
+      </c>
+      <c r="I68">
+        <v>8.1</v>
+      </c>
+      <c r="J68">
+        <v>0.125</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>274</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>1.75</v>
+      </c>
+      <c r="D69">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E69">
+        <v>2.25</v>
+      </c>
+      <c r="F69">
+        <v>0.1</v>
+      </c>
+      <c r="G69">
+        <v>0.06</v>
+      </c>
+      <c r="H69">
+        <v>0.125</v>
+      </c>
+      <c r="I69">
+        <v>8.1</v>
+      </c>
+      <c r="J69">
+        <v>0.125</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>275</v>
+      </c>
+      <c r="B70">
+        <v>0.215</v>
+      </c>
+      <c r="C70">
+        <v>1.5499999999999998</v>
+      </c>
+      <c r="D70">
+        <v>0.06</v>
+      </c>
+      <c r="E70">
+        <v>2.25</v>
+      </c>
+      <c r="F70">
+        <v>0.03</v>
+      </c>
+      <c r="G70">
+        <v>0.05</v>
+      </c>
+      <c r="H70">
+        <v>0.03</v>
+      </c>
+      <c r="I70">
+        <v>5.7</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>